--- a/reactive/power_throughput-dm4t-randomEqual.xlsx
+++ b/reactive/power_throughput-dm4t-randomEqual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E55791-B3AB-40AB-999A-AB21A8A7C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC27E6F5-2FA3-40B2-ABB4-C5EAF17927C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="26484" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="31740" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -8288,7 +8288,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
@@ -9948,7 +9948,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
@@ -10197,7 +10197,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>26</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>26</v>
